--- a/NewFrontend/RWS/Kabeladministratie (goed).xlsx
+++ b/NewFrontend/RWS/Kabeladministratie (goed).xlsx
@@ -75,15 +75,9 @@
     <t>CAT 5E</t>
   </si>
   <si>
-    <t>kabelVanInstallatie</t>
-  </si>
-  <si>
     <t>Installatie</t>
   </si>
   <si>
-    <t>kabelNaarInstallatie</t>
-  </si>
-  <si>
     <t>[Installaties]</t>
   </si>
   <si>
@@ -157,6 +151,12 @@
   </si>
   <si>
     <t>13-69-061</t>
+  </si>
+  <si>
+    <t>vanInst</t>
+  </si>
+  <si>
+    <t>naarInst</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,11 +659,11 @@
         <v>15</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="7" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G1" s="8"/>
     </row>
@@ -678,16 +678,16 @@
         <v>16</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -702,23 +702,23 @@
         <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="str">
-        <f>IF($D3="","",VLOOKUP($D3,$A$26:$B$39,2,FALSE))</f>
+        <f t="shared" ref="E3:E14" si="0">IF($D3="","",VLOOKUP($D3,$A$26:$B$39,2,FALSE))</f>
         <v>TRANSMISSIEKAST NETWERK</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f>IF($F3="","",VLOOKUP($F3,$A$26:$B$39,2,FALSE))</f>
+        <f t="shared" ref="G3:G14" si="1">IF($F3="","",VLOOKUP($F3,$A$26:$B$39,2,FALSE))</f>
         <v>BESTURINGSKAST</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
-        <f t="shared" ref="A4:A22" si="0">CONCATENATE("Kabel_",$B4)</f>
+        <f t="shared" ref="A4:A22" si="2">CONCATENATE("Kabel_",$B4)</f>
         <v>Kabel_13-69-052</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -728,23 +728,23 @@
         <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="str">
-        <f>IF($D4="","",VLOOKUP($D4,$A$26:$B$39,2,FALSE))</f>
+        <f t="shared" si="0"/>
         <v>TRANSMISSIEKAST NETWERK</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G4" s="4" t="str">
-        <f>IF($F4="","",VLOOKUP($F4,$A$26:$B$39,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>BESTURINGSKAST</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Kabel_13-69-053</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -754,23 +754,23 @@
         <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="str">
-        <f>IF($D5="","",VLOOKUP($D5,$A$26:$B$39,2,FALSE))</f>
+        <f t="shared" si="0"/>
         <v>TRANSMISSIEKAST NETWERK</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5" s="4" t="str">
-        <f>IF($F5="","",VLOOKUP($F5,$A$26:$B$39,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>NETWERK VIDEORECORDER</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Kabel_13-69-054</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -780,23 +780,23 @@
         <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3" t="str">
-        <f>IF($D6="","",VLOOKUP($D6,$A$26:$B$39,2,FALSE))</f>
+        <f t="shared" si="0"/>
         <v>TRANSMISSIEKAST NETWERK</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4" t="str">
-        <f>IF($F6="","",VLOOKUP($F6,$A$26:$B$39,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>RELAISKAST</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Kabel_13-69-055</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -806,23 +806,23 @@
         <v>17</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3" t="str">
-        <f>IF($D7="","",VLOOKUP($D7,$A$26:$B$39,2,FALSE))</f>
+        <f t="shared" si="0"/>
         <v>TRANSMISSIEKAST NETWERK</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7" s="4" t="str">
-        <f>IF($F7="","",VLOOKUP($F7,$A$26:$B$39,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>DRAADLOOS ZEND-./ONTVANG.</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Kabel_13-69-056</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -832,23 +832,23 @@
         <v>17</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="3" t="str">
-        <f>IF($D8="","",VLOOKUP($D8,$A$26:$B$39,2,FALSE))</f>
+        <f t="shared" si="0"/>
         <v>TRANSMISSIEKAST NETWERK</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" s="4" t="str">
-        <f>IF($F8="","",VLOOKUP($F8,$A$26:$B$39,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>RELAISKAST</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Kabel_13-69-057</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -858,23 +858,23 @@
         <v>17</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3" t="str">
-        <f>IF($D9="","",VLOOKUP($D9,$A$26:$B$39,2,FALSE))</f>
+        <f t="shared" si="0"/>
         <v>TRANSMISSIEKAST NETWERK</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="4" t="str">
-        <f>IF($F9="","",VLOOKUP($F9,$A$26:$B$39,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>DRAADLOOS ZEND-./ONTVANG.</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Kabel_13-69-058</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -884,23 +884,23 @@
         <v>17</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3" t="str">
-        <f>IF($D10="","",VLOOKUP($D10,$A$26:$B$39,2,FALSE))</f>
+        <f t="shared" si="0"/>
         <v>TRANSMISSIEKAST NETWERK</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" s="4" t="str">
-        <f>IF($F10="","",VLOOKUP($F10,$A$26:$B$39,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>DRAADLOOS ZEND-./ONTVANG.</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Kabel_13-69-059</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -910,23 +910,23 @@
         <v>17</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3" t="str">
-        <f>IF($D11="","",VLOOKUP($D11,$A$26:$B$39,2,FALSE))</f>
+        <f t="shared" si="0"/>
         <v>TRANSMISSIEKAST NETWERK</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G11" s="4" t="str">
-        <f>IF($F11="","",VLOOKUP($F11,$A$26:$B$39,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>DRAADLOOS ZEND-./ONTVANG.</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Kabel_13-69-060</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -936,42 +936,42 @@
         <v>17</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" s="3" t="str">
-        <f>IF($D12="","",VLOOKUP($D12,$A$26:$B$39,2,FALSE))</f>
+        <f t="shared" si="0"/>
         <v>TRANSMISSIEKAST NETWERK</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G12" s="4" t="str">
-        <f>IF($F12="","",VLOOKUP($F12,$A$26:$B$39,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>DATA WCD</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Kabel_13-69-061</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="3" t="str">
-        <f>IF($D13="","",VLOOKUP($D13,$A$26:$B$39,2,FALSE))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="4" t="str">
-        <f>IF($F13="","",VLOOKUP($F13,$A$26:$B$39,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Kabel_13-69-062</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -981,23 +981,23 @@
         <v>17</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14" s="3" t="str">
-        <f>IF($D14="","",VLOOKUP($D14,$A$26:$B$39,2,FALSE))</f>
+        <f t="shared" si="0"/>
         <v>TRANSMISSIEKAST NETWERK</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G14" s="4" t="str">
-        <f>IF($F14="","",VLOOKUP($F14,$A$26:$B$39,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>RELAISKAST</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Kabel_13-69-063</v>
       </c>
       <c r="B15" s="5" t="str">
@@ -1005,17 +1005,17 @@
         <v>13-69-063</v>
       </c>
       <c r="E15" s="3" t="str">
-        <f t="shared" ref="E15:E22" si="1">IF($D15="","",VLOOKUP($D15,$A$26:$B$39,2,FALSE))</f>
+        <f t="shared" ref="E15:E22" si="3">IF($D15="","",VLOOKUP($D15,$A$26:$B$39,2,FALSE))</f>
         <v/>
       </c>
       <c r="G15" s="4" t="str">
-        <f t="shared" ref="G15:G22" si="2">IF($F15="","",VLOOKUP($F15,$A$26:$B$39,2,FALSE))</f>
+        <f t="shared" ref="G15:G22" si="4">IF($F15="","",VLOOKUP($F15,$A$26:$B$39,2,FALSE))</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Kabel_13-69-064</v>
       </c>
       <c r="B16" s="5" t="str">
@@ -1023,17 +1023,17 @@
         <v>13-69-064</v>
       </c>
       <c r="E16" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G16" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Kabel_13-69-065</v>
       </c>
       <c r="B17" s="5" t="str">
@@ -1041,17 +1041,17 @@
         <v>13-69-065</v>
       </c>
       <c r="E17" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G17" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Kabel_13-69-066</v>
       </c>
       <c r="B18" s="5" t="str">
@@ -1059,17 +1059,17 @@
         <v>13-69-066</v>
       </c>
       <c r="E18" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G18" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Kabel_13-69-067</v>
       </c>
       <c r="B19" s="5" t="str">
@@ -1077,17 +1077,17 @@
         <v>13-69-067</v>
       </c>
       <c r="E19" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G19" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Kabel_13-69-068</v>
       </c>
       <c r="B20" s="5" t="str">
@@ -1095,17 +1095,17 @@
         <v>13-69-068</v>
       </c>
       <c r="E20" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G20" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Kabel_13-69-069</v>
       </c>
       <c r="B21" s="5" t="str">
@@ -1113,17 +1113,17 @@
         <v>13-69-069</v>
       </c>
       <c r="E21" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G21" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Kabel_13-69-070</v>
       </c>
       <c r="B22" s="5" t="str">
@@ -1131,11 +1131,11 @@
         <v>13-69-070</v>
       </c>
       <c r="E22" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G22" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1144,130 +1144,130 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
